--- a/政务平台/分割表格/1001-1501.xlsx
+++ b/政务平台/分割表格/1001-1501.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -499,9 +499,19 @@
           <t>深圳市</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>当前企业不存在或非正常营业！</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>当前企业不存在或非正常营业！</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>91440300MA5FQQ5D08</t>
@@ -530,7 +540,9 @@
           <t>零售业</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
           <t>深圳市龙华区龙华街道油松社区东环一路与油松路交叉处佳润大厦521</t>
@@ -578,9 +590,19 @@
           <t>深圳市</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>13682224168</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>440102195603084817</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>91440300MA5FQPLA5J</t>
@@ -609,7 +631,9 @@
           <t>商务服务业</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
       <c r="R3" t="inlineStr">
         <is>
           <t>深圳市福田区莲花街道彩虹社区彩云路6号民宁花园彩云阁1B-2B</t>
@@ -657,9 +681,19 @@
           <t>深圳市</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>13418922257</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>350521196706297018</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>91440300MA5FQQ8035</t>
@@ -688,7 +722,9 @@
           <t>批发业</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
       <c r="R4" t="inlineStr">
         <is>
           <t>深圳市坪山区坑梓街道沙田社区沙田南路39号101-1</t>
@@ -736,9 +772,19 @@
           <t>深圳市</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>17604122100</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>210311199303251559</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>91440300MA5FQPRQ4A</t>
@@ -767,7 +813,9 @@
           <t>批发业</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
       <c r="R5" t="inlineStr">
         <is>
           <t>深圳市福田区莲花街道紫荆社区景田东路1号景苑大厦A栋、B栋A栋1606</t>
@@ -815,9 +863,19 @@
           <t>深圳市</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>17799200521</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>411423198705172014</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>91440300MA5FQPBXXD</t>
@@ -846,7 +904,9 @@
           <t>零售业</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
       <c r="R6" t="inlineStr">
         <is>
           <t>深圳市龙华区观湖街道观城社区环观中路25号301</t>
@@ -894,9 +954,19 @@
           <t>深圳市</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>15017532663</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>211402199010041419</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>91440300MA5FQPKC5Y</t>
@@ -925,7 +995,9 @@
           <t>娱乐业</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
       <c r="R7" t="inlineStr">
         <is>
           <t>深圳市福田区福田街道岗厦社区深南大道2001号嘉麟豪庭C1503</t>
@@ -973,9 +1045,19 @@
           <t>深圳市</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>15986643223</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>440582199101012081</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>91440300MA5FQQA497</t>
@@ -1004,7 +1086,9 @@
           <t>非金属矿物制品业</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
       <c r="R8" t="inlineStr">
         <is>
           <t>深圳市宝安区西乡街道富华社区宝民二路鸿隆107B1506A</t>
@@ -1052,9 +1136,19 @@
           <t>深圳市</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>13974729361</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>43042219630905104X</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>91440300MA5FQQ328A</t>
@@ -1083,7 +1177,9 @@
           <t>商务服务业</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr"/>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
       <c r="R9" t="inlineStr">
         <is>
           <t>深圳市南山区南头街道同乐社区北环大道塘尾厂房3栋303-04</t>
@@ -1131,9 +1227,19 @@
           <t>深圳市</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17610161016</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>231121199409100317</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>91440300MA5FQPGE63</t>
@@ -1162,7 +1268,9 @@
           <t>商务服务业</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
       <c r="R10" t="inlineStr">
         <is>
           <t>深圳市福田区梅林街道梅京社区北环大道7008号通业大厦16F</t>
